--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374601.4589480844</v>
+        <v>371607.1822882881</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6.876045741711437</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>6.876045741711437</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.056421089299432</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.147728395804276</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.147728395805165</v>
       </c>
       <c r="K7" t="n">
-        <v>1.908692693495155</v>
+        <v>1.908692693494267</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>153.8072380324135</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>133.8333590606439</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>127.8196955706817</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>186.1649406925473</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
-        <v>53.78010144560237</v>
+        <v>138.395696696718</v>
       </c>
       <c r="X10" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.3969424465325</v>
       </c>
       <c r="H11" t="n">
-        <v>289.2333283694414</v>
+        <v>289.2333283694416</v>
       </c>
       <c r="I11" t="n">
-        <v>21.3452251881065</v>
+        <v>21.34522518810692</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.2954251490935</v>
+        <v>26.29845521044007</v>
       </c>
       <c r="T11" t="n">
         <v>201.6207316513238</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7186853960805</v>
       </c>
       <c r="H12" t="n">
-        <v>86.88509532763449</v>
+        <v>86.88509532763455</v>
       </c>
       <c r="I12" t="n">
-        <v>9.149882754511111</v>
+        <v>9.14988275451131</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.9280722713989</v>
+        <v>122.9280722713991</v>
       </c>
       <c r="T12" t="n">
         <v>189.5848146860822</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7904085787106</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6620977565879</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.34772704413032</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.7961157069477</v>
       </c>
       <c r="T13" t="n">
-        <v>16.95301009845107</v>
+        <v>218.5431506420849</v>
       </c>
       <c r="U13" t="n">
         <v>286.1989982230501</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261916</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5845196044218</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>130.5670520278532</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7427594815764</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>331.6388439349719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672546</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>9.434273714504656</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7.018581172448512</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108349</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.6125906008195</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001865</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876462</v>
       </c>
       <c r="V20" t="n">
-        <v>277.4607323328445</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.762447262067503</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440891</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584588</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1854515484203</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.1688035646743</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.6125906008195</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876462</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>25.58371311037398</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5420528771668</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.22623717053731</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2728,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440902</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>77.21319700625017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.53051761883745</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>4.837070800805972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.19831151749326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1854515484205</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.1415897965314</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C32" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D32" t="n">
-        <v>351.0907897537338</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3381182053126</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F32" t="n">
         <v>403.2837938747622</v>
       </c>
       <c r="G32" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H32" t="n">
         <v>279.9708401375951</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.02033873387043</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T32" t="n">
-        <v>195.604804970525</v>
+        <v>195.6048049705249</v>
       </c>
       <c r="U32" t="n">
-        <v>247.3166441206971</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V32" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W32" t="n">
         <v>345.6487168504638</v>
@@ -3095,7 +3095,7 @@
         <v>366.1388488115198</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.2397283149881</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C34" t="n">
         <v>163.6545692316786</v>
@@ -3202,10 +3202,10 @@
         <v>161.9498010102177</v>
       </c>
       <c r="H34" t="n">
-        <v>132.1269181270554</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.21232487745976</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413437</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.7462364915098</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T34" t="n">
-        <v>213.8897425958126</v>
+        <v>194.5310976445382</v>
       </c>
       <c r="U34" t="n">
         <v>282.5931996814712</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W34" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X34" t="n">
-        <v>222.117403522088</v>
+        <v>222.1174035220879</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965314</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040584</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537338</v>
       </c>
       <c r="E35" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053126</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747623</v>
       </c>
       <c r="G35" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458085</v>
       </c>
       <c r="H35" t="n">
-        <v>279.9708401375951</v>
+        <v>279.9708401375952</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387036</v>
+        <v>81.02033873387047</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705249</v>
+        <v>195.604804970525</v>
       </c>
       <c r="U35" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206972</v>
       </c>
       <c r="V35" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031858</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504639</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115199</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891044</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.239728314988</v>
+        <v>176.2397283149882</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316787</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9498010102177</v>
+        <v>79.00265633480714</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250048</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745976</v>
+        <v>78.21232487745988</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.5884997241343</v>
+        <v>63.58849972413441</v>
       </c>
       <c r="S37" t="n">
-        <v>94.7990918161014</v>
+        <v>177.7462364915098</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958127</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5931996814712</v>
+        <v>282.5931996814713</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568789</v>
       </c>
       <c r="W37" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696419</v>
       </c>
       <c r="X37" t="n">
-        <v>222.1174035220879</v>
+        <v>222.117403522088</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851456</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965314</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040584</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537338</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053126</v>
       </c>
       <c r="F38" t="n">
         <v>403.2837938747622</v>
       </c>
       <c r="G38" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458084</v>
       </c>
       <c r="H38" t="n">
         <v>279.9708401375951</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387036</v>
+        <v>81.02033873387043</v>
       </c>
       <c r="T38" t="n">
-        <v>195.6048049705249</v>
+        <v>195.604804970525</v>
       </c>
       <c r="U38" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206971</v>
       </c>
       <c r="V38" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031857</v>
       </c>
       <c r="W38" t="n">
         <v>345.6487168504638</v>
@@ -3569,7 +3569,7 @@
         <v>366.1388488115198</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.6456867891025</v>
+        <v>382.6456867891044</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.239728314988</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>163.6545692316786</v>
       </c>
       <c r="D40" t="n">
-        <v>88.79114740709869</v>
+        <v>145.0232211512632</v>
       </c>
       <c r="E40" t="n">
-        <v>142.8417107796199</v>
+        <v>142.84171077962</v>
       </c>
       <c r="F40" t="n">
         <v>141.828796155982</v>
@@ -3676,7 +3676,7 @@
         <v>161.9498010102177</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>213.8897425958125</v>
+        <v>197.0356592416294</v>
       </c>
       <c r="U40" t="n">
         <v>282.5931996814712</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568788</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696418</v>
       </c>
       <c r="X40" t="n">
-        <v>222.1174035220879</v>
+        <v>222.117403522088</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851456</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.239728314988</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>163.6545692316786</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102177</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>132.1269181270557</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745976</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5931996814712</v>
+        <v>249.9706524003851</v>
       </c>
       <c r="V43" t="n">
         <v>248.5453914568787</v>
@@ -4135,16 +4135,16 @@
         <v>176.239728314988</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
-        <v>80.67945300188318</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F46" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>161.9498010102176</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S46" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T46" t="n">
-        <v>213.8897425958125</v>
+        <v>204.2207373366237</v>
       </c>
       <c r="U46" t="n">
         <v>282.5931996814711</v>
@@ -4195,7 +4195,7 @@
         <v>248.5453914568787</v>
       </c>
       <c r="W46" t="n">
-        <v>282.9307464696417</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>222.1174035220878</v>
@@ -4310,19 +4310,19 @@
         <v>21.38658590694733</v>
       </c>
       <c r="D2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F2" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4334,16 +4334,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4352,25 +4352,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y2" t="n">
         <v>21.38658590694733</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
         <v>7.495584408540386</v>
@@ -4407,52 +4407,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>6.856703976333826</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="N3" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J4" t="n">
         <v>7.495584408540386</v>
@@ -4495,10 +4495,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>9.02213997058352</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>15.82942525487784</v>
       </c>
       <c r="O4" t="n">
         <v>22.63671053917217</v>
@@ -4507,31 +4507,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4592,25 +4592,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
         <v>0.5500836593369149</v>
@@ -4650,10 +4650,10 @@
         <v>14.16465422792556</v>
       </c>
       <c r="L6" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="M6" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="N6" t="n">
         <v>27.50418296684575</v>
@@ -4686,10 +4686,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="7">
@@ -4708,37 +4708,37 @@
         <v>6.667680719235332</v>
       </c>
       <c r="E7" t="n">
-        <v>2.478056077008789</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
-        <v>2.478056077008789</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G7" t="n">
-        <v>2.478056077008789</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H7" t="n">
-        <v>2.478056077008789</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I7" t="n">
-        <v>2.478056077008789</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J7" t="n">
-        <v>2.478056077008789</v>
+        <v>2.478056077007892</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M7" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N7" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4747,7 +4747,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S7" t="n">
         <v>13.6131814684388</v>
@@ -4759,7 +4759,7 @@
         <v>13.6131814684388</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
         <v>6.667680719235332</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549.2024635036628</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C8" t="n">
-        <v>549.2024635036628</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D8" t="n">
-        <v>549.2024635036628</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E8" t="n">
-        <v>359.7826784871779</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897905</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G8" t="n">
         <v>15.0020469733056</v>
@@ -4802,52 +4802,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678508</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201477</v>
+        <v>603.4370373477799</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201477</v>
+        <v>414.017252331295</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201477</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y8" t="n">
-        <v>738.6222485201477</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>469.7084696131274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>320.7740599518761</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
         <v>15.0020469733056</v>
@@ -4884,49 +4884,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198765</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T9" t="n">
-        <v>469.7084696131274</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U9" t="n">
-        <v>469.7084696131274</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V9" t="n">
-        <v>469.7084696131274</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W9" t="n">
-        <v>469.7084696131274</v>
+        <v>372.6371690098585</v>
       </c>
       <c r="X9" t="n">
-        <v>469.7084696131274</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y9" t="n">
-        <v>469.7084696131274</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.5625931581204</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="C10" t="n">
-        <v>313.5625931581204</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5625931581204</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H10" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I10" t="n">
         <v>38.67250990818521</v>
@@ -4963,49 +4963,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>100.3335179349385</v>
       </c>
       <c r="M10" t="n">
-        <v>447.395098931819</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N10" t="n">
-        <v>633.0454302264759</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608025</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R10" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S10" t="n">
-        <v>557.3057129681431</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T10" t="n">
-        <v>557.3057129681431</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U10" t="n">
-        <v>557.3057129681431</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="V10" t="n">
-        <v>557.3057129681431</v>
+        <v>367.885927951658</v>
       </c>
       <c r="W10" t="n">
-        <v>502.9823781746053</v>
+        <v>228.0922949246701</v>
       </c>
       <c r="X10" t="n">
-        <v>313.5625931581204</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.5625931581204</v>
+        <v>38.67250990818521</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2331.570140541112</v>
+        <v>2331.570140541113</v>
       </c>
       <c r="C11" t="n">
-        <v>1962.6076236007</v>
+        <v>1962.607623600701</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.34192499395</v>
+        <v>1604.341924993951</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.553672395706</v>
+        <v>1218.553672395707</v>
       </c>
       <c r="F11" t="n">
-        <v>807.5677676060984</v>
+        <v>807.5677676060989</v>
       </c>
       <c r="G11" t="n">
-        <v>393.0254014984894</v>
+        <v>393.0254014984897</v>
       </c>
       <c r="H11" t="n">
-        <v>100.8705243576395</v>
+        <v>100.8705243576397</v>
       </c>
       <c r="I11" t="n">
-        <v>79.30969083429959</v>
+        <v>79.30969083429933</v>
       </c>
       <c r="J11" t="n">
-        <v>312.2837373146467</v>
+        <v>312.2837373146458</v>
       </c>
       <c r="K11" t="n">
-        <v>712.1899589432892</v>
+        <v>712.1899589432874</v>
       </c>
       <c r="L11" t="n">
-        <v>1245.210750858612</v>
+        <v>1245.210750858609</v>
       </c>
       <c r="M11" t="n">
-        <v>1869.96852141997</v>
+        <v>1869.968521419965</v>
       </c>
       <c r="N11" t="n">
-        <v>2509.449334251983</v>
+        <v>2509.449334251976</v>
       </c>
       <c r="O11" t="n">
-        <v>3099.957671020869</v>
+        <v>3099.95767102086</v>
       </c>
       <c r="P11" t="n">
-        <v>3569.441873700945</v>
+        <v>3569.441873700934</v>
       </c>
       <c r="Q11" t="n">
-        <v>3873.832211167647</v>
+        <v>3873.832211167634</v>
       </c>
       <c r="R11" t="n">
-        <v>3965.484541714979</v>
+        <v>3965.484541714966</v>
       </c>
       <c r="S11" t="n">
-        <v>3901.549768837107</v>
+        <v>3938.920445542805</v>
       </c>
       <c r="T11" t="n">
-        <v>3697.8924641388</v>
+        <v>3735.263140844498</v>
       </c>
       <c r="U11" t="n">
-        <v>3444.404394136428</v>
+        <v>3481.775070842126</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.404394136428</v>
+        <v>3481.775070842126</v>
       </c>
       <c r="W11" t="n">
-        <v>3091.635738866314</v>
+        <v>3481.775070842126</v>
       </c>
       <c r="X11" t="n">
-        <v>2718.169980605234</v>
+        <v>3108.309312581046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2718.169980605234</v>
+        <v>2718.169980605235</v>
       </c>
     </row>
     <row r="12">
@@ -5106,43 +5106,43 @@
         <v>458.9287573712794</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3941993981643</v>
+        <v>312.3941993981644</v>
       </c>
       <c r="G12" t="n">
         <v>176.3147192001032</v>
       </c>
       <c r="H12" t="n">
-        <v>88.55199664693707</v>
+        <v>88.55199664693701</v>
       </c>
       <c r="I12" t="n">
-        <v>79.30969083429959</v>
+        <v>79.30969083429933</v>
       </c>
       <c r="J12" t="n">
-        <v>79.30969083429959</v>
+        <v>199.2495899290026</v>
       </c>
       <c r="K12" t="n">
-        <v>79.30969083429959</v>
+        <v>199.2495899290026</v>
       </c>
       <c r="L12" t="n">
-        <v>461.1554166133923</v>
+        <v>461.1554166133989</v>
       </c>
       <c r="M12" t="n">
-        <v>978.8645031851383</v>
+        <v>978.8645031851436</v>
       </c>
       <c r="N12" t="n">
-        <v>1524.68445370272</v>
+        <v>1524.684453702724</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.783278644793</v>
+        <v>2001.783278644796</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.364081192932</v>
+        <v>2365.364081192933</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.489022712023</v>
+        <v>2558.489022712024</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.489022712023</v>
+        <v>2558.489022712024</v>
       </c>
       <c r="S12" t="n">
         <v>2434.319252740913</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.3787358039938</v>
+        <v>394.6878435871075</v>
       </c>
       <c r="C13" t="n">
-        <v>521.4425528760869</v>
+        <v>394.6878435871074</v>
       </c>
       <c r="D13" t="n">
-        <v>371.325913463751</v>
+        <v>394.6878435871074</v>
       </c>
       <c r="E13" t="n">
-        <v>223.412819881358</v>
+        <v>246.7747500047144</v>
       </c>
       <c r="F13" t="n">
-        <v>223.412819881358</v>
+        <v>246.7747500047143</v>
       </c>
       <c r="G13" t="n">
-        <v>223.412819881358</v>
+        <v>79.30969083429933</v>
       </c>
       <c r="H13" t="n">
-        <v>79.30969083429959</v>
+        <v>79.30969083429933</v>
       </c>
       <c r="I13" t="n">
-        <v>79.30969083429959</v>
+        <v>79.30969083429933</v>
       </c>
       <c r="J13" t="n">
-        <v>140.9086531057053</v>
+        <v>140.9086531057047</v>
       </c>
       <c r="K13" t="n">
-        <v>371.9715072847132</v>
+        <v>371.971507284712</v>
       </c>
       <c r="L13" t="n">
-        <v>723.1788430804368</v>
+        <v>723.1788430804351</v>
       </c>
       <c r="M13" t="n">
-        <v>1103.866858869435</v>
+        <v>1103.866858869432</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.937580944376</v>
+        <v>1480.937580944373</v>
       </c>
       <c r="O13" t="n">
-        <v>1813.207127930993</v>
+        <v>1813.207127930989</v>
       </c>
       <c r="P13" t="n">
-        <v>2074.000444487162</v>
+        <v>2074.000444487157</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.125138738326</v>
+        <v>2171.125138738321</v>
       </c>
       <c r="R13" t="n">
-        <v>2171.125138738326</v>
+        <v>2091.986020511927</v>
       </c>
       <c r="S13" t="n">
-        <v>2171.125138738326</v>
+        <v>2079.06065111097</v>
       </c>
       <c r="T13" t="n">
-        <v>2154.000886113628</v>
+        <v>1858.309993896742</v>
       </c>
       <c r="U13" t="n">
-        <v>1864.910988918628</v>
+        <v>1569.220096701742</v>
       </c>
       <c r="V13" t="n">
-        <v>1610.226500712741</v>
+        <v>1314.535608495855</v>
       </c>
       <c r="W13" t="n">
-        <v>1320.809330675781</v>
+        <v>1025.118438458895</v>
       </c>
       <c r="X13" t="n">
-        <v>1092.819779777764</v>
+        <v>797.1288875608773</v>
       </c>
       <c r="Y13" t="n">
-        <v>872.0272006342335</v>
+        <v>576.3363084173471</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,43 +5270,43 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128742</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
         <v>4100.461420469745</v>
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.214355784993</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.9513573533138</v>
+        <v>726.9917339741374</v>
       </c>
       <c r="C16" t="n">
-        <v>552.0151744254069</v>
+        <v>558.0555510462306</v>
       </c>
       <c r="D16" t="n">
-        <v>401.8985350130713</v>
+        <v>407.9389116338948</v>
       </c>
       <c r="E16" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2228.630518229424</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2008.951735943806</v>
       </c>
       <c r="U16" t="n">
-        <v>1895.483610467949</v>
+        <v>1719.875522258533</v>
       </c>
       <c r="V16" t="n">
-        <v>1640.799122262062</v>
+        <v>1465.191034052646</v>
       </c>
       <c r="W16" t="n">
-        <v>1351.381952225101</v>
+        <v>1175.773864015685</v>
       </c>
       <c r="X16" t="n">
-        <v>1123.392401327084</v>
+        <v>947.7843131176676</v>
       </c>
       <c r="Y16" t="n">
-        <v>902.5998221835536</v>
+        <v>726.9917339741374</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2266.424947555046</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D17" t="n">
         <v>1539.196732007884</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2220959708297</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364392</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
         <v>3602.609239333933</v>
@@ -5534,16 +5534,16 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
         <v>4100.461420469745</v>
@@ -5552,7 +5552,7 @@
         <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.62987785606</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
         <v>3043.16411959498</v>
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K18" t="n">
-        <v>423.3203657894393</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L18" t="n">
-        <v>423.3203657894393</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M18" t="n">
-        <v>1015.338720041567</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.434683440903</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O18" t="n">
-        <v>2184.311158441098</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.0589900220749</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="C19" t="n">
-        <v>484.5294206134843</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="D19" t="n">
-        <v>484.5294206134843</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5294206134843</v>
+        <v>406.9157655494122</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134843</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880631</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
         <v>1653.109749005499</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821982</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136709</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930822</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5000339958447</v>
+        <v>964.3593790373413</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7074548523145</v>
+        <v>743.5667998938112</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E20" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708297</v>
       </c>
       <c r="G20" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100991</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820541</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.19805447697</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.429399206856</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945776</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969964</v>
       </c>
     </row>
     <row r="21">
@@ -5817,16 +5817,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
         <v>240.4596049779265</v>
@@ -5835,19 +5835,19 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.0544497962737</v>
+        <v>494.0589900220758</v>
       </c>
       <c r="C22" t="n">
-        <v>612.1182668683667</v>
+        <v>325.122807094169</v>
       </c>
       <c r="D22" t="n">
-        <v>612.1182668683667</v>
+        <v>322.3324563244038</v>
       </c>
       <c r="E22" t="n">
-        <v>464.2051732859736</v>
+        <v>322.3324563244038</v>
       </c>
       <c r="F22" t="n">
-        <v>317.3152257880633</v>
+        <v>175.4425088264936</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880633</v>
+        <v>175.4425088264936</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>175.4425088264936</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156346</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693328</v>
       </c>
       <c r="M22" t="n">
         <v>1238.413883213792</v>
@@ -5923,37 +5923,37 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368671</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.346239107601</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.667456821983</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.59124313671</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930823</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.489584893861</v>
+        <v>1124.489584893863</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.489584893861</v>
+        <v>896.5000339958457</v>
       </c>
       <c r="Y22" t="n">
-        <v>962.7029146265135</v>
+        <v>675.7074548523154</v>
       </c>
     </row>
     <row r="23">
@@ -5978,52 +5978,52 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015178</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287891997</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294975</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234012</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151118</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403611</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580349</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347198</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132383</v>
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>337.911839384122</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M24" t="n">
-        <v>929.9301936362498</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.026157035586</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>744.6035248193381</v>
+        <v>1016.791123359143</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6673418914313</v>
+        <v>847.8549404312361</v>
       </c>
       <c r="D25" t="n">
-        <v>575.6673418914313</v>
+        <v>697.7383010189004</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365081</v>
+        <v>549.8252074365074</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385977</v>
+        <v>402.9352599385971</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>235.7210651131765</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117249</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948592</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
         <v>1654.146473931025</v>
@@ -6163,34 +6163,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335694</v>
+        <v>2411.002158759395</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074624</v>
+        <v>2411.002158759395</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789006</v>
+        <v>2191.323376473777</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103733</v>
+        <v>2191.323376473777</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897846</v>
+        <v>1936.63888826789</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860886</v>
+        <v>1647.22171823093</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628682</v>
+        <v>1419.232167332912</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193381</v>
+        <v>1198.439588189382</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988748</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510026</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>957.5492919979876</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C28" t="n">
-        <v>788.6131090700807</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D28" t="n">
-        <v>638.4964696577449</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5833760753518</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774414</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
         <v>176.4792337520202</v>
@@ -6382,13 +6382,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6400,7 +6400,7 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q28" t="n">
         <v>2429.412499335695</v>
@@ -6412,7 +6412,7 @@
         <v>2429.412499335695</v>
       </c>
       <c r="T28" t="n">
-        <v>2209.733717050076</v>
+        <v>2209.733717050077</v>
       </c>
       <c r="U28" t="n">
         <v>1920.657503364803</v>
@@ -6421,13 +6421,13 @@
         <v>1665.973015158916</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.979886869775</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.990335971757</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="Y28" t="n">
-        <v>1139.197756828227</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963572</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6470,40 +6470,40 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.861033895493</v>
@@ -6534,16 +6534,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L30" t="n">
         <v>1062.737405310563</v>
@@ -6555,7 +6555,7 @@
         <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>2276.851722962027</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.9550599890985</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0691298872742</v>
+        <v>577.1890673222613</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9524904749385</v>
+        <v>577.1890673222613</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>429.2759737398682</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>282.3860262419578</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>282.3860262419578</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>140.5133092803881</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6634,37 +6634,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P31" t="n">
         <v>2311.699365782259</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074624</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789006</v>
+        <v>2209.733717050077</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103733</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897846</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628683</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193382</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1575.482104401312</v>
       </c>
       <c r="E32" t="n">
-        <v>1193.322389042411</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921453</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608134</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.497374127291</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304029</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S32" t="n">
-        <v>4558.742435310221</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T32" t="n">
-        <v>4361.161824228882</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U32" t="n">
         <v>4111.347032187774</v>
@@ -6737,10 +6737,10 @@
         <v>3783.912682083546</v>
       </c>
       <c r="W32" t="n">
-        <v>3434.772564052775</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031038</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y32" t="n">
         <v>2678.424548294568</v>
@@ -6762,43 +6762,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E33" t="n">
-        <v>459.9992225560485</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F33" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G33" t="n">
-        <v>177.684414342863</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608057</v>
+        <v>173.0562066847319</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608057</v>
+        <v>503.5649492480907</v>
       </c>
       <c r="L33" t="n">
-        <v>106.3138404733484</v>
+        <v>994.297282091842</v>
       </c>
       <c r="M33" t="n">
-        <v>698.3321947254761</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.428158124812</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O33" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P33" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.1664599623953</v>
+        <v>638.9514545840204</v>
       </c>
       <c r="C34" t="n">
-        <v>389.8588142738313</v>
+        <v>473.6438088954565</v>
       </c>
       <c r="D34" t="n">
-        <v>389.8588142738313</v>
+        <v>473.6438088954565</v>
       </c>
       <c r="E34" t="n">
-        <v>389.8588142738313</v>
+        <v>473.6438088954565</v>
       </c>
       <c r="F34" t="n">
-        <v>389.8588142738313</v>
+        <v>473.6438088954565</v>
       </c>
       <c r="G34" t="n">
-        <v>226.2731566877527</v>
+        <v>310.058151309378</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81162322608057</v>
+        <v>171.813971587151</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J34" t="n">
         <v>175.3500754639142</v>
@@ -6862,16 +6862,16 @@
         <v>438.5351317827576</v>
       </c>
       <c r="L34" t="n">
-        <v>829.8532792141715</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M34" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N34" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O34" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P34" t="n">
         <v>2335.556946294691</v>
@@ -6880,28 +6880,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S34" t="n">
-        <v>2213.053948372522</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T34" t="n">
-        <v>1997.003703326247</v>
+        <v>2080.788697947873</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.556026880317</v>
+        <v>1795.341021501942</v>
       </c>
       <c r="V34" t="n">
-        <v>1460.500075913772</v>
+        <v>1544.285070535398</v>
       </c>
       <c r="W34" t="n">
-        <v>1174.711443116154</v>
+        <v>1258.49643773778</v>
       </c>
       <c r="X34" t="n">
-        <v>950.3504294574798</v>
+        <v>1034.135424079105</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.1863875532923</v>
+        <v>816.9713821749175</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469786</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.48210440131</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.322389042408</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921435</v>
+        <v>785.9650214921453</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478927</v>
+        <v>375.610451647894</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.307498725198</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128799</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018655</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957692</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874798</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333937</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021285</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127292</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.58116130403</v>
       </c>
       <c r="S35" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.742435310221</v>
       </c>
       <c r="T35" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.161824228882</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187774</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083546</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031038</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="36">
@@ -6999,22 +6999,22 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E36" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K36" t="n">
         <v>570.9683475412853</v>
@@ -7023,13 +7023,13 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.719034637164</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="N36" t="n">
-        <v>2275.814998036501</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O36" t="n">
-        <v>2275.814998036501</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P36" t="n">
         <v>2552.77562977024</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.9514545840206</v>
+        <v>555.1664599623937</v>
       </c>
       <c r="C37" t="n">
-        <v>473.6438088954563</v>
+        <v>389.8588142738299</v>
       </c>
       <c r="D37" t="n">
-        <v>473.6438088954563</v>
+        <v>389.8588142738299</v>
       </c>
       <c r="E37" t="n">
-        <v>473.6438088954563</v>
+        <v>389.8588142738299</v>
       </c>
       <c r="F37" t="n">
-        <v>473.6438088954563</v>
+        <v>389.8588142738299</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0581513093779</v>
+        <v>310.0581513093782</v>
       </c>
       <c r="H37" t="n">
-        <v>171.8139715871509</v>
+        <v>171.8139715871512</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608054</v>
+        <v>92.8116232260806</v>
       </c>
       <c r="J37" t="n">
         <v>175.3500754639142</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827574</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141713</v>
       </c>
       <c r="M37" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N37" t="n">
         <v>1670.891395746897</v>
@@ -7111,34 +7111,34 @@
         <v>2041.470182110206</v>
       </c>
       <c r="P37" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.55694629469</v>
       </c>
       <c r="Q37" t="n">
         <v>2456.826409196405</v>
       </c>
       <c r="R37" t="n">
-        <v>2392.59560139425</v>
+        <v>2392.595601394249</v>
       </c>
       <c r="S37" t="n">
-        <v>2296.838942994148</v>
+        <v>2213.053948372522</v>
       </c>
       <c r="T37" t="n">
-        <v>2080.788697947873</v>
+        <v>1997.003703326246</v>
       </c>
       <c r="U37" t="n">
-        <v>1795.341021501942</v>
+        <v>1711.556026880316</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.285070535398</v>
+        <v>1460.500075913771</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.49643773778</v>
+        <v>1174.711443116153</v>
       </c>
       <c r="X37" t="n">
-        <v>1034.135424079105</v>
+        <v>950.3504294574784</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.9713821749176</v>
+        <v>733.1863875532908</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478939</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608134</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U38" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V38" t="n">
-        <v>3783.912682083543</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W38" t="n">
-        <v>3434.772564052771</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031034</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="39">
@@ -7236,37 +7236,37 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E39" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G39" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>423.3203657894393</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>1015.338720041567</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.434683440903</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O39" t="n">
-        <v>2184.311158441098</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P39" t="n">
         <v>2552.77562977024</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.9389207862795</v>
+        <v>993.9831749975618</v>
       </c>
       <c r="C40" t="n">
-        <v>633.6312750977153</v>
+        <v>828.6755293089974</v>
       </c>
       <c r="D40" t="n">
-        <v>543.9432474137772</v>
+        <v>682.1874271360043</v>
       </c>
       <c r="E40" t="n">
-        <v>399.6586910707267</v>
+        <v>537.9028707929535</v>
       </c>
       <c r="F40" t="n">
-        <v>256.397280812159</v>
+        <v>394.6414605343861</v>
       </c>
       <c r="G40" t="n">
-        <v>92.81162322608053</v>
+        <v>231.0558029483076</v>
       </c>
       <c r="H40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J40" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639142</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141715</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N40" t="n">
         <v>1670.891395746897</v>
       </c>
       <c r="O40" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110206</v>
       </c>
       <c r="P40" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196405</v>
       </c>
       <c r="R40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196405</v>
       </c>
       <c r="S40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196405</v>
       </c>
       <c r="T40" t="n">
-        <v>2240.776164150131</v>
+        <v>2257.800490770517</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.328487704201</v>
+        <v>1972.352814324586</v>
       </c>
       <c r="V40" t="n">
-        <v>1704.272536737657</v>
+        <v>1721.296863358042</v>
       </c>
       <c r="W40" t="n">
-        <v>1418.483903940039</v>
+        <v>1435.508230560424</v>
       </c>
       <c r="X40" t="n">
-        <v>1194.122890281364</v>
+        <v>1211.147216901749</v>
       </c>
       <c r="Y40" t="n">
-        <v>976.9588483771765</v>
+        <v>993.9831749975618</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G41" t="n">
         <v>375.6104516478937</v>
@@ -7442,19 +7442,19 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187774</v>
       </c>
       <c r="V41" t="n">
         <v>3783.912682083545</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1586.31563634397</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O42" t="n">
         <v>2133.192111344164</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.1664599623953</v>
+        <v>766.1384555139856</v>
       </c>
       <c r="C43" t="n">
-        <v>389.8588142738315</v>
+        <v>600.8308098254214</v>
       </c>
       <c r="D43" t="n">
-        <v>389.8588142738315</v>
+        <v>454.3427076524283</v>
       </c>
       <c r="E43" t="n">
-        <v>389.8588142738315</v>
+        <v>310.058151309378</v>
       </c>
       <c r="F43" t="n">
-        <v>389.8588142738315</v>
+        <v>310.058151309378</v>
       </c>
       <c r="G43" t="n">
-        <v>226.273156687753</v>
+        <v>310.058151309378</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608056</v>
+        <v>171.813971587151</v>
       </c>
       <c r="I43" t="n">
         <v>92.81162322608056</v>
@@ -7594,25 +7594,25 @@
         <v>2392.59560139425</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.053948372522</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T43" t="n">
         <v>1997.003703326247</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.556026880317</v>
+        <v>1744.50809484101</v>
       </c>
       <c r="V43" t="n">
-        <v>1460.500075913772</v>
+        <v>1493.452143874466</v>
       </c>
       <c r="W43" t="n">
-        <v>1174.711443116154</v>
+        <v>1207.663511076848</v>
       </c>
       <c r="X43" t="n">
-        <v>950.3504294574798</v>
+        <v>983.3024974181731</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.1863875532923</v>
+        <v>766.1384555139856</v>
       </c>
     </row>
     <row r="44">
@@ -7628,52 +7628,52 @@
         <v>1930.119265768719</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E44" t="n">
         <v>1193.32238904241</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921453</v>
       </c>
       <c r="G44" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608179</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J44" t="n">
         <v>372.3074987251948</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T44" t="n">
         <v>4361.161824228881</v>
@@ -7685,13 +7685,13 @@
         <v>3783.912682083544</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7713,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J45" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1586.31563634397</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O45" t="n">
         <v>2133.192111344164</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>619.3972677645526</v>
+        <v>850.7217647389934</v>
       </c>
       <c r="C46" t="n">
-        <v>619.3972677645526</v>
+        <v>685.4141190504292</v>
       </c>
       <c r="D46" t="n">
-        <v>537.9028707929534</v>
+        <v>538.9260168774363</v>
       </c>
       <c r="E46" t="n">
-        <v>537.9028707929534</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="F46" t="n">
         <v>394.6414605343858</v>
@@ -7798,19 +7798,19 @@
         <v>231.0558029483074</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J46" t="n">
         <v>175.3500754639142</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827581</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141722</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
@@ -7825,31 +7825,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q46" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R46" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S46" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T46" t="n">
-        <v>2061.234511128404</v>
+        <v>2006.770375305227</v>
       </c>
       <c r="U46" t="n">
-        <v>1775.786834682473</v>
+        <v>1721.322698859297</v>
       </c>
       <c r="V46" t="n">
-        <v>1524.730883715929</v>
+        <v>1470.266747892752</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.942250918311</v>
+        <v>1470.266747892752</v>
       </c>
       <c r="X46" t="n">
-        <v>1014.581237259637</v>
+        <v>1245.905734234078</v>
       </c>
       <c r="Y46" t="n">
-        <v>797.4171953554495</v>
+        <v>1028.74169232989</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1470824870235</v>
+        <v>220.4249025169917</v>
       </c>
       <c r="M2" t="n">
         <v>212.5009646122118</v>
       </c>
       <c r="N2" t="n">
-        <v>211.167778269899</v>
+        <v>210.8899582399309</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>213.252896592586</v>
       </c>
       <c r="P2" t="n">
-        <v>217.8634090628659</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.9054000402213</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>129.0745055979979</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9234925718064</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6260055667107</v>
+        <v>118.3481855367425</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>131.5496644292654</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>126.4659658995391</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>137.2421710355686</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,13 +8143,13 @@
         <v>132.371579436055</v>
       </c>
       <c r="M4" t="n">
-        <v>135.9022952863677</v>
+        <v>130.7078364405676</v>
       </c>
       <c r="N4" t="n">
         <v>124.8974446055506</v>
       </c>
       <c r="O4" t="n">
-        <v>131.2117226975745</v>
+        <v>136.4061815433745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>154.7627458276928</v>
+        <v>147.8867000859799</v>
       </c>
       <c r="K5" t="n">
-        <v>170.3927992253741</v>
+        <v>170.392799225372</v>
       </c>
       <c r="L5" t="n">
-        <v>174.1128276738381</v>
+        <v>174.1128276738354</v>
       </c>
       <c r="M5" t="n">
-        <v>161.7447379858238</v>
+        <v>168.6207837275322</v>
       </c>
       <c r="N5" t="n">
-        <v>166.2997501532234</v>
+        <v>159.7015244414771</v>
       </c>
       <c r="O5" t="n">
-        <v>171.1476275257443</v>
+        <v>171.1476275257415</v>
       </c>
       <c r="P5" t="n">
-        <v>181.9275360541448</v>
+        <v>181.9275360541423</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.1157190230829</v>
+        <v>186.7139447348244</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>113.9642774067862</v>
+        <v>113.9642774067853</v>
       </c>
       <c r="K6" t="n">
-        <v>110.9626230209954</v>
+        <v>110.962623020994</v>
       </c>
       <c r="L6" t="n">
-        <v>100.0428483638952</v>
+        <v>99.76502833392507</v>
       </c>
       <c r="M6" t="n">
-        <v>89.16887217270461</v>
+        <v>96.04491791441373</v>
       </c>
       <c r="N6" t="n">
-        <v>83.57294581701612</v>
+        <v>76.97472010527045</v>
       </c>
       <c r="O6" t="n">
-        <v>92.86106823854135</v>
+        <v>92.86106823853919</v>
       </c>
       <c r="P6" t="n">
-        <v>94.05754377850506</v>
+        <v>94.05754377850332</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.2984078483198</v>
+        <v>113.2984078483187</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>115.7059091112855</v>
+        <v>108.8298633695729</v>
       </c>
       <c r="M7" t="n">
-        <v>118.0528625983342</v>
+        <v>118.052862598333</v>
       </c>
       <c r="N7" t="n">
-        <v>107.7436456220086</v>
+        <v>107.7436456220074</v>
       </c>
       <c r="O7" t="n">
-        <v>120.5618717592534</v>
+        <v>120.5618717592524</v>
       </c>
       <c r="P7" t="n">
-        <v>116.5323802887966</v>
+        <v>123.4084260305071</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528961</v>
       </c>
       <c r="M10" t="n">
-        <v>153.375901684702</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
         <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782908869</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.433786671143025e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.036003198443659</v>
+        <v>8.036003198443641</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.93383931137145</v>
+        <v>70.93080925002513</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7904085787106</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.6620977565879</v>
       </c>
       <c r="I13" t="n">
-        <v>89.27331002355945</v>
+        <v>89.27331002355959</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.34772704413011</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.6666509026341</v>
+        <v>172.8705351956865</v>
       </c>
       <c r="T13" t="n">
-        <v>201.5901405436338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.291526137289</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.29152613728962</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.77143633060581</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>157.442692066844</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>50.29152613728983</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613728972</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.8125473841231</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.5968918457638</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>50.29152613728752</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>50.2915261372904</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.8530257561447</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5420528771668</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.41584978742045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.8502495361952</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440891</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>48.95451442054613</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.3384883584588</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484203</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>209.3098013303408</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.0541357332573</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>162.4097502978219</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>35.60626522691582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108361</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0232211512632</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E34" t="n">
-        <v>142.84171077962</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F34" t="n">
         <v>141.828796155982</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.734819797949285</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745984</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.58849972413429</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>19.3586449512743</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0232211512631</v>
+        <v>145.0232211512632</v>
       </c>
       <c r="E37" t="n">
-        <v>142.8417107796199</v>
+        <v>142.84171077962</v>
       </c>
       <c r="F37" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559821</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>82.94714467541064</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.94714467540831</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>176.2397283149881</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>56.23207374416441</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250047</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745976</v>
+        <v>78.21232487745984</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413429</v>
+        <v>63.58849972413437</v>
       </c>
       <c r="S40" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915098</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.85408335418316</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>141.828796155982</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H43" t="n">
-        <v>4.734819797948944</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.62254728108604</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316785</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>64.34376814937987</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413424</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>9.669005259188806</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1100788.968724021</v>
+        <v>1100788.96872402</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952348.3855395367</v>
+        <v>952348.3855395351</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1031345.98038365</v>
+        <v>1031345.980383651</v>
       </c>
     </row>
     <row r="9">
@@ -26314,13 +26314,13 @@
         <v>389681.5507012107</v>
       </c>
       <c r="C2" t="n">
-        <v>389690.9994046016</v>
+        <v>389690.9994046015</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="E2" t="n">
-        <v>351842.4150175126</v>
+        <v>351842.415017512</v>
       </c>
       <c r="F2" t="n">
         <v>381272.891528065</v>
@@ -26329,7 +26329,7 @@
         <v>381272.8915280649</v>
       </c>
       <c r="H2" t="n">
-        <v>381272.8915280648</v>
+        <v>381272.891528065</v>
       </c>
       <c r="I2" t="n">
         <v>383174.4141313158</v>
@@ -26341,19 +26341,19 @@
         <v>383174.4141313159</v>
       </c>
       <c r="L2" t="n">
+        <v>384150.7347360449</v>
+      </c>
+      <c r="M2" t="n">
         <v>384150.7347360451</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>384150.7347360451</v>
+      </c>
+      <c r="O2" t="n">
+        <v>384150.7347360451</v>
+      </c>
+      <c r="P2" t="n">
         <v>384150.734736045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>384150.7347360448</v>
-      </c>
-      <c r="O2" t="n">
-        <v>384150.734736045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>384150.7347360452</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>56605.31713792482</v>
+        <v>56605.31713792867</v>
       </c>
       <c r="D3" t="n">
-        <v>442602.9506730561</v>
+        <v>442602.9506730523</v>
       </c>
       <c r="E3" t="n">
-        <v>779774.1559505936</v>
+        <v>779774.1559505906</v>
       </c>
       <c r="F3" t="n">
-        <v>157221.8459870849</v>
+        <v>157221.845987088</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511611</v>
+        <v>3446.08661151143</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044377</v>
+        <v>1799.076112044405</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45314.75273067483</v>
+        <v>45314.75273067477</v>
       </c>
       <c r="M3" t="n">
-        <v>200321.5260091892</v>
+        <v>200321.5260091886</v>
       </c>
       <c r="N3" t="n">
-        <v>41337.34743652162</v>
+        <v>41337.34743652245</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.151434834260726e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406442.870506277</v>
+        <v>406442.8705062769</v>
       </c>
       <c r="C4" t="n">
-        <v>392996.4784198215</v>
+        <v>392996.4784198205</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8633.302291450022</v>
+        <v>8633.302291450018</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
-        <v>8720.723770518985</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="H4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770519078</v>
       </c>
       <c r="I4" t="n">
-        <v>10054.30870000826</v>
+        <v>10054.30870000837</v>
       </c>
       <c r="J4" t="n">
-        <v>10054.3087000083</v>
+        <v>10054.30870000829</v>
       </c>
       <c r="K4" t="n">
-        <v>10054.30870000829</v>
+        <v>10054.30870000824</v>
       </c>
       <c r="L4" t="n">
+        <v>12187.65154153081</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12187.65154153075</v>
+      </c>
+      <c r="N4" t="n">
         <v>12187.65154153068</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12187.65154153074</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12187.65154153083</v>
       </c>
       <c r="O4" t="n">
         <v>12187.65154153074</v>
@@ -26470,13 +26470,13 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>36164.2700510686</v>
+        <v>36164.27005106869</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>86878.2652423321</v>
+        <v>86878.26524233185</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26494,7 +26494,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100444.125536041</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87621.71005227735</v>
+        <v>-87623.35894693164</v>
       </c>
       <c r="C6" t="n">
-        <v>-96075.06620421339</v>
+        <v>-96076.66536885293</v>
       </c>
       <c r="D6" t="n">
-        <v>-381478.1329699022</v>
+        <v>-381478.1329698986</v>
       </c>
       <c r="E6" t="n">
-        <v>-523443.3084668632</v>
+        <v>-523644.1107072185</v>
       </c>
       <c r="F6" t="n">
-        <v>115188.1932566227</v>
+        <v>115142.288261054</v>
       </c>
       <c r="G6" t="n">
-        <v>272410.0392437074</v>
+        <v>272364.1342481419</v>
       </c>
       <c r="H6" t="n">
-        <v>272410.0392437075</v>
+        <v>272364.1342481417</v>
       </c>
       <c r="I6" t="n">
-        <v>268743.9793625574</v>
+        <v>268708.0823806932</v>
       </c>
       <c r="J6" t="n">
-        <v>270390.9898620246</v>
+        <v>270355.0928801603</v>
       </c>
       <c r="K6" t="n">
-        <v>272190.0659740691</v>
+        <v>272154.1689922048</v>
       </c>
       <c r="L6" t="n">
-        <v>226204.2049277987</v>
+        <v>226173.4464754326</v>
       </c>
       <c r="M6" t="n">
-        <v>71197.43164928413</v>
+        <v>71166.67319691893</v>
       </c>
       <c r="N6" t="n">
-        <v>230181.6102219514</v>
+        <v>230150.8517695852</v>
       </c>
       <c r="O6" t="n">
-        <v>271518.9576584732</v>
+        <v>271488.1992061076</v>
       </c>
       <c r="P6" t="n">
-        <v>271518.9576584734</v>
+        <v>271488.1992061075</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="M2" t="n">
+        <v>3.592251866949141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.592251866949185</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.592251866949249</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.592251866949255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.59225186694925</v>
       </c>
       <c r="P2" t="n">
         <v>3.592251866949314</v>
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>97.1837830262637</v>
+        <v>97.18378302626793</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>1220.316523314882</v>
+        <v>1220.316523314879</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,10 +26793,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>991.3711354287448</v>
+        <v>991.3711354287416</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26808,7 +26808,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
-        <v>1173.104351895088</v>
+        <v>1173.104351895087</v>
       </c>
       <c r="J4" t="n">
         <v>1173.104351895088</v>
@@ -26823,7 +26823,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
         <v>1160.145290326007</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-5.906386491005833e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949243</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.439293542825908e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>62.16252230713837</v>
+        <v>62.16252230714261</v>
       </c>
       <c r="D3" t="n">
-        <v>451.2861578866411</v>
+        <v>451.2861578866368</v>
       </c>
       <c r="E3" t="n">
-        <v>671.8465824019768</v>
+        <v>671.8465824019742</v>
       </c>
       <c r="F3" t="n">
-        <v>137.7245254015043</v>
+        <v>137.724525401507</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>180.6495414246086</v>
       </c>
       <c r="E4" t="n">
-        <v>803.8455482624247</v>
+        <v>803.8455482624215</v>
       </c>
       <c r="F4" t="n">
-        <v>168.774154897262</v>
+        <v>168.7741548972654</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,25 +27030,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95906156908109</v>
+        <v>12.9590615690804</v>
       </c>
       <c r="J4" t="n">
-        <v>6.87604574171155</v>
+        <v>6.876045741712005</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>167.690479855528</v>
+        <v>167.6904798555275</v>
       </c>
       <c r="M4" t="n">
-        <v>803.8455482624242</v>
+        <v>803.845548262422</v>
       </c>
       <c r="N4" t="n">
-        <v>168.7741548972617</v>
+        <v>168.7741548972651</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>180.6495414246086</v>
       </c>
       <c r="M4" t="n">
-        <v>803.8455482624247</v>
+        <v>803.8455482624215</v>
       </c>
       <c r="N4" t="n">
-        <v>168.774154897262</v>
+        <v>168.7741548972654</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.8069958789715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>198.1720763759344</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>134.9688605959799</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.1815175667542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.4767625605679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>140.5690198229273</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>88.60479815866813</v>
+        <v>89.42442281108013</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27512,10 +27512,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>219.0603805004824</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>161.8714051760593</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>82.01821069278695</v>
       </c>
       <c r="K4" t="n">
         <v>8.05620490400057</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>74.81741179380703</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.4736627472537</v>
+        <v>335.4736627472535</v>
       </c>
       <c r="I5" t="n">
-        <v>189.3574471941918</v>
+        <v>195.4138682834906</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.4514810013537</v>
+        <v>118.4514810013526</v>
       </c>
       <c r="S5" t="n">
-        <v>200.1172536838896</v>
+        <v>194.0608325945898</v>
       </c>
       <c r="T5" t="n">
-        <v>221.3856103271566</v>
+        <v>221.3856103271565</v>
       </c>
       <c r="U5" t="n">
         <v>251.3143978218381</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>151.5886593661015</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.13448034689</v>
       </c>
       <c r="H6" t="n">
-        <v>110.2165886683471</v>
+        <v>110.216588668347</v>
       </c>
       <c r="I6" t="n">
-        <v>82.19953193862102</v>
+        <v>82.19953193862071</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.17921497792814</v>
+        <v>87.17921497792757</v>
       </c>
       <c r="S6" t="n">
-        <v>167.800403923496</v>
+        <v>167.8004039234959</v>
       </c>
       <c r="T6" t="n">
         <v>199.3221636325467</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>142.2862342507649</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>160.6690456254775</v>
       </c>
       <c r="I7" t="n">
-        <v>150.1802461690471</v>
+        <v>150.1802461690469</v>
       </c>
       <c r="J7" t="n">
-        <v>80.96904436920961</v>
+        <v>76.82131597340391</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.61124627301713</v>
+        <v>64.61124627301649</v>
       </c>
       <c r="R7" t="n">
-        <v>169.4135390681875</v>
+        <v>162.5374933264757</v>
       </c>
       <c r="S7" t="n">
-        <v>214.0864324254027</v>
+        <v>220.962478167114</v>
       </c>
       <c r="T7" t="n">
-        <v>227.196796345948</v>
+        <v>227.1967963459479</v>
       </c>
       <c r="U7" t="n">
         <v>286.3094702958654</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>253.068807709298</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -27910,13 +27910,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>193.918899409491</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -27950,7 +27950,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>67.58990222131953</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>65.5300424683723</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917617</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W10" t="n">
-        <v>232.7428968909886</v>
+        <v>148.127301639873</v>
       </c>
       <c r="X10" t="n">
-        <v>38.18406822271709</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949186</v>
+        <v>3.592251866949255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949249</v>
+        <v>3.592251866949141</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866951074</v>
+        <v>3.592251866949185</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949255</v>
+        <v>3.592251866949185</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="J43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="K43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="L43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="M43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="N43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="O43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="P43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="R43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="S43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.59225186694925</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3906885749799542</v>
+        <v>0.3906885749799713</v>
       </c>
       <c r="H5" t="n">
-        <v>4.001139368513457</v>
+        <v>4.001139368513632</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0620212869147</v>
+        <v>15.06202128691536</v>
       </c>
       <c r="J5" t="n">
-        <v>33.15920444070493</v>
+        <v>33.15920444070637</v>
       </c>
       <c r="K5" t="n">
-        <v>49.6970518196064</v>
+        <v>49.69705181960856</v>
       </c>
       <c r="L5" t="n">
-        <v>61.65358729614918</v>
+        <v>61.65358729615187</v>
       </c>
       <c r="M5" t="n">
-        <v>68.60149524144894</v>
+        <v>68.60149524145193</v>
       </c>
       <c r="N5" t="n">
-        <v>69.71153915511074</v>
+        <v>69.71153915511378</v>
       </c>
       <c r="O5" t="n">
-        <v>65.82662963765382</v>
+        <v>65.82662963765669</v>
       </c>
       <c r="P5" t="n">
-        <v>56.18150544283619</v>
+        <v>56.18150544283864</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.18997085136657</v>
+        <v>42.1899708513684</v>
       </c>
       <c r="R5" t="n">
-        <v>24.54159119808457</v>
+        <v>24.54159119808564</v>
       </c>
       <c r="S5" t="n">
-        <v>8.902815902355718</v>
+        <v>8.902815902356105</v>
       </c>
       <c r="T5" t="n">
-        <v>1.710239236974751</v>
+        <v>1.710239236974825</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03125508599839633</v>
+        <v>0.0312550859983977</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2090368163206427</v>
+        <v>0.2090368163206518</v>
       </c>
       <c r="H6" t="n">
-        <v>2.018855568149365</v>
+        <v>2.018855568149453</v>
       </c>
       <c r="I6" t="n">
-        <v>7.197100912794058</v>
+        <v>7.197100912794371</v>
       </c>
       <c r="J6" t="n">
-        <v>19.74939500159195</v>
+        <v>19.74939500159281</v>
       </c>
       <c r="K6" t="n">
-        <v>33.75486169507501</v>
+        <v>33.75486169507648</v>
       </c>
       <c r="L6" t="n">
-        <v>45.38757715769042</v>
+        <v>45.3875771576924</v>
       </c>
       <c r="M6" t="n">
-        <v>52.96516174931371</v>
+        <v>52.96516174931602</v>
       </c>
       <c r="N6" t="n">
-        <v>54.36699197806048</v>
+        <v>54.36699197806286</v>
       </c>
       <c r="O6" t="n">
-        <v>49.73517620590308</v>
+        <v>49.73517620590525</v>
       </c>
       <c r="P6" t="n">
-        <v>39.91686363582518</v>
+        <v>39.91686363582692</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.68336623770169</v>
+        <v>26.68336623770285</v>
       </c>
       <c r="R6" t="n">
-        <v>12.97861917471499</v>
+        <v>12.97861917471556</v>
       </c>
       <c r="S6" t="n">
-        <v>3.882767180341759</v>
+        <v>3.882767180341928</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8425650622748708</v>
+        <v>0.8425650622749076</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01375242212635808</v>
+        <v>0.01375242212635868</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1752494448014591</v>
+        <v>0.1752494448014667</v>
       </c>
       <c r="H7" t="n">
-        <v>1.558126881962065</v>
+        <v>1.558126881962133</v>
       </c>
       <c r="I7" t="n">
-        <v>5.270228758211154</v>
+        <v>5.270228758211383</v>
       </c>
       <c r="J7" t="n">
-        <v>12.39013574746316</v>
+        <v>12.3901357474637</v>
       </c>
       <c r="K7" t="n">
-        <v>20.3607991323877</v>
+        <v>20.36079913238859</v>
       </c>
       <c r="L7" t="n">
-        <v>26.05481291166421</v>
+        <v>26.05481291166534</v>
       </c>
       <c r="M7" t="n">
-        <v>27.47114706101417</v>
+        <v>27.47114706101537</v>
       </c>
       <c r="N7" t="n">
-        <v>26.81794458493603</v>
+        <v>26.8179445849372</v>
       </c>
       <c r="O7" t="n">
-        <v>24.77071243430079</v>
+        <v>24.77071243430187</v>
       </c>
       <c r="P7" t="n">
-        <v>21.19562376035101</v>
+        <v>21.19562376035193</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.67475123696582</v>
+        <v>14.67475123696646</v>
       </c>
       <c r="R7" t="n">
-        <v>7.879852308981969</v>
+        <v>7.879852308982311</v>
       </c>
       <c r="S7" t="n">
-        <v>3.054119869858154</v>
+        <v>3.054119869858288</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7487930823335069</v>
+        <v>0.7487930823335396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009559060625534145</v>
+        <v>0.009559060625534561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
         <v>238.1048576151093</v>
@@ -31549,13 +31549,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31610,7 +31610,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
         <v>306.8275379829655</v>
@@ -31619,22 +31619,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31695,25 +31695,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.905795068602536</v>
+        <v>4.905795068602524</v>
       </c>
       <c r="H11" t="n">
-        <v>50.24147374632572</v>
+        <v>50.24147374632562</v>
       </c>
       <c r="I11" t="n">
-        <v>189.1306643822994</v>
+        <v>189.130664382299</v>
       </c>
       <c r="J11" t="n">
-        <v>416.3732242038048</v>
+        <v>416.3732242038039</v>
       </c>
       <c r="K11" t="n">
-        <v>624.0355294577503</v>
+        <v>624.0355294577489</v>
       </c>
       <c r="L11" t="n">
-        <v>774.1712552884952</v>
+        <v>774.1712552884935</v>
       </c>
       <c r="M11" t="n">
-        <v>861.4146883397556</v>
+        <v>861.4146883397536</v>
       </c>
       <c r="N11" t="n">
-        <v>875.3532785784225</v>
+        <v>875.3532785784206</v>
       </c>
       <c r="O11" t="n">
-        <v>826.5712788650061</v>
+        <v>826.5712788650042</v>
       </c>
       <c r="P11" t="n">
-        <v>705.4594631088809</v>
+        <v>705.4594631088793</v>
       </c>
       <c r="Q11" t="n">
-        <v>529.7706772145524</v>
+        <v>529.7706772145513</v>
       </c>
       <c r="R11" t="n">
-        <v>308.1636494781043</v>
+        <v>308.1636494781036</v>
       </c>
       <c r="S11" t="n">
-        <v>111.7908051257804</v>
+        <v>111.7908051257801</v>
       </c>
       <c r="T11" t="n">
-        <v>21.47511791280761</v>
+        <v>21.47511791280756</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3924636054882027</v>
+        <v>0.3924636054882019</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.624831767130123</v>
+        <v>2.624831767130117</v>
       </c>
       <c r="H12" t="n">
-        <v>25.35034890886198</v>
+        <v>25.35034890886192</v>
       </c>
       <c r="I12" t="n">
-        <v>90.37249724548889</v>
+        <v>90.37249724548869</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>247.9890398936397</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>524.257133092089</v>
+        <v>403.1057198651229</v>
       </c>
       <c r="M12" t="n">
-        <v>665.0725052066103</v>
+        <v>665.0725052066089</v>
       </c>
       <c r="N12" t="n">
-        <v>682.6749954344261</v>
+        <v>682.6749954344245</v>
       </c>
       <c r="O12" t="n">
-        <v>624.5142494364376</v>
+        <v>624.5142494364361</v>
       </c>
       <c r="P12" t="n">
-        <v>501.2277433215407</v>
+        <v>501.2277433215397</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.057472590154</v>
+        <v>335.0574725901532</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.75509883243887</v>
+        <v>48.75509883243876</v>
       </c>
       <c r="T12" t="n">
-        <v>10.57991400873939</v>
+        <v>10.57991400873937</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1726863004690871</v>
+        <v>0.1726863004690867</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.200570779748147</v>
+        <v>2.200570779748142</v>
       </c>
       <c r="H13" t="n">
-        <v>19.56507475085172</v>
+        <v>19.56507475085168</v>
       </c>
       <c r="I13" t="n">
-        <v>66.17716490369884</v>
+        <v>66.1771649036987</v>
       </c>
       <c r="J13" t="n">
-        <v>155.580354128194</v>
+        <v>155.5803541281936</v>
       </c>
       <c r="K13" t="n">
-        <v>255.666314228921</v>
+        <v>255.6663142289204</v>
       </c>
       <c r="L13" t="n">
-        <v>327.1648593818291</v>
+        <v>327.1648593818284</v>
       </c>
       <c r="M13" t="n">
-        <v>344.9494723199754</v>
+        <v>344.9494723199746</v>
       </c>
       <c r="N13" t="n">
-        <v>336.7473448681871</v>
+        <v>336.7473448681864</v>
       </c>
       <c r="O13" t="n">
-        <v>311.0406771229473</v>
+        <v>311.0406771229466</v>
       </c>
       <c r="P13" t="n">
-        <v>266.1490332160848</v>
+        <v>266.1490332160843</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.2677950205471</v>
+        <v>184.2677950205467</v>
       </c>
       <c r="R13" t="n">
-        <v>98.94566433303937</v>
+        <v>98.94566433303916</v>
       </c>
       <c r="S13" t="n">
-        <v>38.34994713433814</v>
+        <v>38.34994713433806</v>
       </c>
       <c r="T13" t="n">
-        <v>9.402438786196624</v>
+        <v>9.402438786196605</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1200311334408082</v>
+        <v>0.1200311334408079</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,13 +32090,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>189.4642825742344</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
@@ -32330,7 +32330,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>506.1607420902315</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,22 +32555,22 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>302.8877650506832</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>385.0831588026166</v>
+        <v>361.6013389488605</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
@@ -32804,13 +32804,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33038,16 +33038,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33275,10 +33275,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
-        <v>413.7326212867942</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>207.8927614733852</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>152.1929830599427</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426205</v>
@@ -33518,10 +33518,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33743,16 +33743,16 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>672.0481308502335</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>413.7326212867942</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>672.0481308502335</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>506.1607420902315</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>626.9124835424238</v>
       </c>
       <c r="P42" t="n">
         <v>557.7961431982454</v>
@@ -34445,22 +34445,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>557.7961431982454</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2279021592211631</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911397</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>1.681586895911398</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>4.9166388158319</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
@@ -34954,7 +34954,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L6" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="M6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.598225711743296</v>
@@ -35109,7 +35109,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>86.19340501175041</v>
       </c>
       <c r="M10" t="n">
-        <v>169.4872848053136</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469473</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>235.3273196771185</v>
+        <v>235.3273196771176</v>
       </c>
       <c r="K11" t="n">
-        <v>403.9456784127697</v>
+        <v>403.9456784127684</v>
       </c>
       <c r="L11" t="n">
-        <v>538.4048403185079</v>
+        <v>538.4048403185063</v>
       </c>
       <c r="M11" t="n">
-        <v>631.0684551124829</v>
+        <v>631.0684551124809</v>
       </c>
       <c r="N11" t="n">
-        <v>645.9402149818316</v>
+        <v>645.9402149818297</v>
       </c>
       <c r="O11" t="n">
-        <v>596.4730674433193</v>
+        <v>596.4730674433174</v>
       </c>
       <c r="P11" t="n">
-        <v>474.2264673536113</v>
+        <v>474.2264673536097</v>
       </c>
       <c r="Q11" t="n">
-        <v>307.4649873401029</v>
+        <v>307.4649873401017</v>
       </c>
       <c r="R11" t="n">
-        <v>92.57811166397215</v>
+        <v>92.57811166397147</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>121.151413226973</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>385.7027533122148</v>
+        <v>264.5513400852487</v>
       </c>
       <c r="M12" t="n">
-        <v>522.938471284592</v>
+        <v>522.9384712845906</v>
       </c>
       <c r="N12" t="n">
-        <v>551.3332833510929</v>
+        <v>551.3332833510913</v>
       </c>
       <c r="O12" t="n">
-        <v>481.9180049919931</v>
+        <v>481.9180049919917</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2533359072105</v>
+        <v>367.2533359072094</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.0756985041324</v>
+        <v>195.0756985041317</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.22117401152121</v>
+        <v>62.22117401152084</v>
       </c>
       <c r="K13" t="n">
-        <v>233.3968224030382</v>
+        <v>233.3968224030376</v>
       </c>
       <c r="L13" t="n">
-        <v>354.7548846421453</v>
+        <v>354.7548846421445</v>
       </c>
       <c r="M13" t="n">
-        <v>384.533349281816</v>
+        <v>384.5333492818152</v>
       </c>
       <c r="N13" t="n">
-        <v>380.8795172474157</v>
+        <v>380.8795172474149</v>
       </c>
       <c r="O13" t="n">
-        <v>335.6258050369869</v>
+        <v>335.6258050369863</v>
       </c>
       <c r="P13" t="n">
-        <v>263.4275924809783</v>
+        <v>263.4275924809778</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.10575176885273</v>
+        <v>98.10575176885233</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,13 +35738,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>46.86803812978999</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
@@ -35978,7 +35978,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>372.1863346759013</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066058</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
         <v>423.4642343883428</v>
@@ -36057,7 +36057,7 @@
         <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
         <v>118.9021551044799</v>
@@ -36139,7 +36139,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404127</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36203,22 +36203,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>164.3333852708091</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066064</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883429</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898089</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>246.5287790227424</v>
+        <v>223.0469591689863</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
@@ -36452,13 +36452,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066064</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883429</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>13.63860328006844</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36686,16 +36686,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36923,10 +36923,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,7 +36996,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
@@ -37005,10 +37005,10 @@
         <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870108</v>
       </c>
       <c r="P32" t="n">
         <v>553.844392613483</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.0551348067185</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>13.63860328006848</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981761</v>
@@ -37166,10 +37166,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.37217397760971</v>
+        <v>83.37217397760978</v>
       </c>
       <c r="K34" t="n">
-        <v>265.8434912311549</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M34" t="n">
         <v>427.056486255292</v>
@@ -37242,10 +37242,10 @@
         <v>374.3220064275852</v>
       </c>
       <c r="P34" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.494406971429</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607247</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37391,16 +37391,16 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>529.9140969282151</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>279.758213872464</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760978</v>
+        <v>83.37217397760966</v>
       </c>
       <c r="K37" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311549</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913272</v>
       </c>
       <c r="M37" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552919</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878652</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275851</v>
       </c>
       <c r="P37" t="n">
-        <v>297.0573375600852</v>
+        <v>297.057337560085</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714291</v>
+        <v>122.494406971429</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>529.9140969282151</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>372.1863346759013</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.37217397760978</v>
+        <v>83.37217397760971</v>
       </c>
       <c r="K40" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311549</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913272</v>
       </c>
       <c r="M40" t="n">
         <v>427.056486255292</v>
@@ -37716,10 +37716,10 @@
         <v>374.3220064275852</v>
       </c>
       <c r="P40" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600851</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714291</v>
+        <v>122.494406971429</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="P42" t="n">
         <v>423.8217357839152</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>423.8217357839152</v>
@@ -38175,10 +38175,10 @@
         <v>83.37217397760983</v>
       </c>
       <c r="K46" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M46" t="n">
         <v>427.0564862552921</v>
